--- a/xlsx/country_comparison/comment_manual_positive.xlsx
+++ b/xlsx/country_comparison/comment_manual_positive.xlsx
@@ -71,19 +71,19 @@
     <t xml:space="preserve">Confusing/difficult</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticize survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doubt global redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticize survey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pro global redistribution</t>
   </si>
   <si>
+    <t xml:space="preserve">Doubt climate action</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pro climate action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubt climate action</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13072558464272</v>
+        <v>0.131625883609389</v>
       </c>
       <c r="C2" t="n">
         <v>0.0697673234173536</v>
@@ -494,7 +494,7 @@
         <v>0.257556758981729</v>
       </c>
       <c r="L2" t="n">
-        <v>0.134157104124194</v>
+        <v>0.12261602368026</v>
       </c>
       <c r="M2" t="n">
         <v>0.0853698100966413</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117088505696475</v>
+        <v>0.117391740788661</v>
       </c>
       <c r="C3" t="n">
         <v>0.107010523752855</v>
@@ -538,7 +538,7 @@
         <v>0.0460316825804056</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0648121000074989</v>
+        <v>0.0780044195016593</v>
       </c>
       <c r="M3" t="n">
         <v>0.20403465096692</v>
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116680944647155</v>
+        <v>0.115086501786906</v>
       </c>
       <c r="C4" t="n">
         <v>0.0919764458587977</v>
@@ -582,7 +582,7 @@
         <v>0.161162939914088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.229932091383916</v>
+        <v>0.233470317821513</v>
       </c>
       <c r="M4" t="n">
         <v>0.172614301261086</v>
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0303602901607922</v>
+        <v>0.0302250164353345</v>
       </c>
       <c r="C5" t="n">
         <v>0.0211108934443368</v>
@@ -626,7 +626,7 @@
         <v>0.00415944145339634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0332729096951088</v>
+        <v>0.0400330890547246</v>
       </c>
       <c r="M5" t="n">
         <v>0.151800730147074</v>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0219727452891465</v>
+        <v>0.0220629991092238</v>
       </c>
       <c r="C6" t="n">
         <v>0.017094148480372</v>
@@ -670,7 +670,7 @@
         <v>0.0745250437890833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0161711170614627</v>
+        <v>0.0263842405119762</v>
       </c>
       <c r="M6" t="n">
         <v>0.000502008032128514</v>
@@ -684,43 +684,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0213029142084788</v>
+        <v>0.020929216733633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0108572546896661</v>
+        <v>0.0218347128817252</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0185212941677131</v>
+        <v>0.0218700451526134</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00699066316329541</v>
+        <v>0.0279920491282482</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0133860546555798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0219494164489717</v>
+        <v>0.0519893723564105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0208606830072648</v>
+        <v>0.0281582658272028</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00976253072757774</v>
+        <v>0.0237144708035906</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0223141546648006</v>
+        <v>0.0584563140940413</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00488877169262998</v>
+        <v>0.0146902681742471</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0369002045172328</v>
+        <v>0.0109577271698444</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0146942867926235</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0324960529700791</v>
+        <v>0.0232164381262679</v>
       </c>
     </row>
     <row r="8">
@@ -728,43 +728,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0209305763179962</v>
+        <v>0.0208245358406806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0218347128817252</v>
+        <v>0.0108572546896661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218700451526134</v>
+        <v>0.0185212941677131</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0279920491282482</v>
+        <v>0.00699066316329541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0133860546555798</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0519893723564105</v>
+        <v>0.0219494164489717</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0281582658272028</v>
+        <v>0.0208606830072648</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0237144708035906</v>
+        <v>0.00976253072757774</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0584563140940413</v>
+        <v>0.0223141546648006</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0146902681742471</v>
+        <v>0.00488877169262998</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0214833358051607</v>
+        <v>0.0371790560030417</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0146942867926235</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0232164381262679</v>
+        <v>0.0324960529700791</v>
       </c>
     </row>
     <row r="9">
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0163390292481995</v>
+        <v>0.0171506810414515</v>
       </c>
       <c r="C9" t="n">
         <v>0.00600964838297343</v>
@@ -802,7 +802,7 @@
         <v>0.011367536084501</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0587857952453002</v>
+        <v>0.0738200326131201</v>
       </c>
       <c r="M9" t="n">
         <v>0.0178060801076016</v>
@@ -816,43 +816,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0101964330292709</v>
+        <v>0.0100656430244752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00728417020100042</v>
+        <v>0.00444800246628011</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0036971411514128</v>
+        <v>0.00335337435894486</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00430626252369435</v>
+        <v>0.000482625482625483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00333954434204623</v>
+        <v>0.00855118235815349</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0119254166216743</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00594200589182936</v>
+        <v>0.0026261196551152</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00646368141978556</v>
+        <v>0.00282289501256844</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0018504561920746</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0121029296382471</v>
+        <v>0.00306997465436804</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0154180458796298</v>
+        <v>0.0148719786389175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0219788440934882</v>
+        <v>0.00385418200790109</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00822570783875314</v>
+        <v>0.0129685698957936</v>
       </c>
     </row>
     <row r="11">
@@ -860,43 +860,43 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0101325942486452</v>
+        <v>0.00997359857741974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00444800246628011</v>
+        <v>0.00728417020100042</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00335337435894486</v>
+        <v>0.0036971411514128</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000482625482625483</v>
+        <v>0.00430626252369435</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00855118235815349</v>
+        <v>0.00333954434204623</v>
       </c>
       <c r="G11" t="n">
+        <v>0.0119254166216743</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00594200589182936</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00646368141978556</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.0026261196551152</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.00282289501256844</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0018504561920746</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.00306997465436804</v>
+        <v>0.0121029296382471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0163279424043428</v>
+        <v>0.0115254198961637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00385418200790109</v>
+        <v>0.0219788440934882</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0129685698957936</v>
+        <v>0.00822570783875314</v>
       </c>
     </row>
   </sheetData>
